--- a/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_4_partner_correlations.xlsx
+++ b/Revisions/Supplementary_Files/Supplementary_File_1/excel files/Supplementary_File_1_Table_4_partner_correlations.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tperica/Box Sync/kortemmelab/home/tina/Gsp1_manuscript/Revisions/Supplementary_Files/Supplementary_File_1/excel files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6B45EA-084C-8145-B626-56C2FA65154F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28760" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Supp_Table5_partner_correlation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -157,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -237,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -255,6 +261,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -290,7 +322,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,6 +351,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -352,6 +403,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -676,14 +735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
@@ -695,7 +754,7 @@
     <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43" customHeight="1">
+    <row r="1" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
@@ -708,7 +767,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="48">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,46 +780,47 @@
       <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>0.41460000000000002</v>
       </c>
-      <c r="D3" s="7" t="b">
-        <v>1</v>
-      </c>
+      <c r="D3" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7">
-        <v>0.23569999999999999</v>
+        <v>0.2359</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -773,20 +833,21 @@
       <c r="D4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.23549999999999999</v>
-      </c>
-      <c r="I4" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="E4" s="14"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="I4" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -800,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="7">
-        <v>0.2354</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -826,10 +887,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H6" s="7">
         <v>0.2354</v>
@@ -838,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -852,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>0.23430000000000001</v>
+        <v>0.2354</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -878,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>0.2321</v>
+        <v>0.23430000000000001</v>
       </c>
       <c r="I8" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -904,19 +965,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>0.23169999999999999</v>
+        <v>0.2321</v>
       </c>
       <c r="I9" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -930,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H10" s="7">
-        <v>0.2296</v>
+        <v>0.23169999999999999</v>
       </c>
       <c r="I10" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -956,19 +1017,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H11" s="7">
-        <v>0.2291</v>
+        <v>0.2296</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -982,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="7">
-        <v>0.22750000000000001</v>
+        <v>0.2291</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1008,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H13" s="7">
         <v>0.22750000000000001</v>
       </c>
       <c r="I13" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1034,19 +1095,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H14" s="7">
-        <v>0.22489999999999999</v>
+        <v>0.22750000000000001</v>
       </c>
       <c r="I14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1060,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>0.22450000000000001</v>
+        <v>0.22489999999999999</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1086,19 +1147,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H16" s="7">
-        <v>0.21879999999999999</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1112,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0.2185</v>
+        <v>0.21879999999999999</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1138,19 +1199,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H18" s="7">
-        <v>0.21759999999999999</v>
+        <v>0.2185</v>
       </c>
       <c r="I18" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1164,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H19" s="7">
-        <v>0.21709999999999999</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="I19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1190,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20" s="7">
         <v>0.21709999999999999</v>
@@ -1202,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
@@ -1216,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H21" s="7">
-        <v>0.2142</v>
+        <v>0.21709999999999999</v>
       </c>
       <c r="I21" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -1242,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H22" s="7">
-        <v>0.21310000000000001</v>
+        <v>0.2142</v>
       </c>
       <c r="I22" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1268,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H23" s="7">
-        <v>0.2104</v>
+        <v>0.21310000000000001</v>
       </c>
       <c r="I23" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -1294,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
-        <v>0.21010000000000001</v>
+        <v>0.2104</v>
       </c>
       <c r="I24" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -1320,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H25" s="7">
-        <v>0.20799999999999999</v>
+        <v>0.21010000000000001</v>
       </c>
       <c r="I25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>14</v>
       </c>
@@ -1346,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H26" s="7">
-        <v>0.20749999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
@@ -1372,19 +1433,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="7">
-        <v>0.20730000000000001</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="I27" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
@@ -1398,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H28" s="7">
-        <v>0.2059</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="I28" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>16</v>
       </c>
@@ -1424,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7">
-        <v>0.20469999999999999</v>
+        <v>0.2059</v>
       </c>
       <c r="I29" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -1450,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H30" s="7">
-        <v>0.2044</v>
+        <v>0.20469999999999999</v>
       </c>
       <c r="I30" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>20</v>
       </c>
@@ -1476,19 +1537,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H31" s="7">
-        <v>0.20380000000000001</v>
+        <v>0.2044</v>
       </c>
       <c r="I31" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -1502,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H32" s="7">
-        <v>0.20250000000000001</v>
+        <v>0.20380000000000001</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>20</v>
       </c>
@@ -1528,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H33" s="7">
-        <v>0.19939999999999999</v>
+        <v>0.20250000000000001</v>
       </c>
       <c r="I33" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>16</v>
       </c>
@@ -1554,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H34" s="7">
-        <v>0.19450000000000001</v>
+        <v>0.19939999999999999</v>
       </c>
       <c r="I34" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -1580,19 +1641,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H35" s="7">
-        <v>0.19420000000000001</v>
+        <v>0.19450000000000001</v>
       </c>
       <c r="I35" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -1606,19 +1667,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H36" s="7">
-        <v>0.19359999999999999</v>
+        <v>0.19420000000000001</v>
       </c>
       <c r="I36" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -1632,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H37" s="7">
-        <v>0.19339999999999999</v>
+        <v>0.19359999999999999</v>
       </c>
       <c r="I37" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
@@ -1658,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="7">
-        <v>0.19289999999999999</v>
+        <v>0.19339999999999999</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -1684,19 +1745,19 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H39" s="7">
-        <v>0.19120000000000001</v>
+        <v>0.19289999999999999</v>
       </c>
       <c r="I39" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
@@ -1710,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H40" s="7">
-        <v>0.1895</v>
+        <v>0.19120000000000001</v>
       </c>
       <c r="I40" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
@@ -1736,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H41" s="7">
-        <v>0.18940000000000001</v>
+        <v>0.1895</v>
       </c>
       <c r="I41" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -1762,19 +1823,19 @@
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" s="7">
-        <v>0.188</v>
+        <v>0.18940000000000001</v>
       </c>
       <c r="I42" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>26</v>
       </c>
@@ -1788,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H43" s="7">
-        <v>0.1817</v>
+        <v>0.188</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>24</v>
       </c>
@@ -1814,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H44" s="7">
-        <v>0.18049999999999999</v>
+        <v>0.1817</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
@@ -1840,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H45" s="7">
-        <v>0.17810000000000001</v>
+        <v>0.18049999999999999</v>
       </c>
       <c r="I45" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1869,16 +1930,16 @@
         <v>27</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H46" s="7">
-        <v>0.1779</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="I46" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -1892,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H47" s="7">
-        <v>0.17749999999999999</v>
+        <v>0.1779</v>
       </c>
       <c r="I47" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>24</v>
       </c>
@@ -1918,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="H48" s="7">
-        <v>0.1762</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="I48" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -1944,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H49" s="7">
-        <v>0.17530000000000001</v>
+        <v>0.1762</v>
       </c>
       <c r="I49" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>21</v>
       </c>
@@ -1970,19 +2031,19 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H50" s="7">
-        <v>0.17380000000000001</v>
+        <v>0.17530000000000001</v>
       </c>
       <c r="I50" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>11</v>
       </c>
@@ -1996,19 +2057,19 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H51" s="7">
-        <v>0.1729</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="I51" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
@@ -2022,440 +2083,441 @@
         <v>0</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.1729</v>
+      </c>
+      <c r="I52" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H52" s="7">
+      <c r="C54" s="7">
         <v>0.1719</v>
       </c>
-      <c r="I52" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="D54" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="7">
-        <v>0.2359</v>
-      </c>
-      <c r="D53" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6" t="s">
+      <c r="H54" s="7">
+        <v>0.104</v>
+      </c>
+      <c r="I54" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="7">
+      <c r="C55" s="7">
         <v>0.17169999999999999</v>
       </c>
-      <c r="I53" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="48">
-      <c r="A54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="6" t="s">
+      <c r="D55" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.1031</v>
+      </c>
+      <c r="I55" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C56" s="7">
         <v>0.17100000000000001</v>
       </c>
-      <c r="D55" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6" t="s">
+      <c r="D56" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="I56" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="B57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="D57" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H57" s="7">
         <v>0.1023</v>
       </c>
-      <c r="I55" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.16819999999999999</v>
-      </c>
-      <c r="D56" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="I57" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="D58" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H58" s="7">
         <v>0.1013</v>
       </c>
-      <c r="I56" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="7">
-        <v>0.16719999999999999</v>
-      </c>
-      <c r="D57" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" s="7">
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="I57" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="6" t="s">
+      <c r="I58" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="7">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="D58" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H58" s="7">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="I58" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="7">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="D59" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="7">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="I59" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="7">
         <v>0.16539999999999999</v>
       </c>
-      <c r="D59" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="D60" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="7">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="I60" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="D61" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H61" s="7">
         <v>9.4700000000000006E-2</v>
       </c>
-      <c r="I59" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="7">
-        <v>0.16520000000000001</v>
-      </c>
-      <c r="D60" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="7">
-        <v>9.3299999999999994E-2</v>
-      </c>
-      <c r="I60" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="7">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D61" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" s="7">
-        <v>9.3200000000000005E-2</v>
-      </c>
       <c r="I61" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D62" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="7">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="I62" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C63" s="7">
         <v>0.16450000000000001</v>
       </c>
-      <c r="D62" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6" t="s">
+      <c r="D63" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="7">
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="I63" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="D64" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H64" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="I62" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="6" t="s">
+      <c r="I64" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="7">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="D65" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="7">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="I65" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="7">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="D66" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" s="7">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I66" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="7">
-        <v>0.16370000000000001</v>
-      </c>
-      <c r="D63" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" s="7">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="I63" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="6" t="s">
+      <c r="B67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="D67" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="7">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="I67" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="7">
-        <v>0.16209999999999999</v>
-      </c>
-      <c r="D64" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" s="7">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="I64" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="7">
-        <v>0.15959999999999999</v>
-      </c>
-      <c r="D65" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" s="7">
-        <v>8.7800000000000003E-2</v>
-      </c>
-      <c r="I65" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="B68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="D68" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="7">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="I68" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C66" s="7">
-        <v>0.15570000000000001</v>
-      </c>
-      <c r="D66" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="7">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="I66" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="7">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="D67" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H67" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="I67" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="7">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="D68" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H68" s="7">
-        <v>8.43E-2</v>
-      </c>
-      <c r="I68" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C69" s="7">
         <v>0.15290000000000001</v>
@@ -2464,1663 +2526,1671 @@
         <v>0</v>
       </c>
       <c r="F69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="7">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I69" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="7">
-        <v>8.2799999999999999E-2</v>
-      </c>
-      <c r="I69" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="B70" s="6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C70" s="7">
-        <v>0.1527</v>
+        <v>0.15290000000000001</v>
       </c>
       <c r="D70" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H70" s="7">
-        <v>8.2000000000000003E-2</v>
+        <v>8.43E-2</v>
       </c>
       <c r="I70" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="7">
+        <v>0.1527</v>
+      </c>
+      <c r="D71" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" s="7">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="I71" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="7">
         <v>0.15240000000000001</v>
       </c>
-      <c r="D71" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" s="7">
-        <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="I71" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="7">
-        <v>0.14949999999999999</v>
-      </c>
       <c r="D72" s="7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H72" s="7">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="I72" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="7">
+        <v>0.14949999999999999</v>
+      </c>
+      <c r="D73" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="7">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="I73" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="7">
+      <c r="C74" s="7">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="D74" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="7">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="I72" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="7">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="D73" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="I74" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="7">
+        <v>0.14760000000000001</v>
+      </c>
+      <c r="D75" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="7">
-        <v>7.8899999999999998E-2</v>
-      </c>
-      <c r="I73" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="7">
-        <v>0.14760000000000001</v>
-      </c>
-      <c r="D74" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" s="7">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I74" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="7">
-        <v>0.1462</v>
-      </c>
-      <c r="D75" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H75" s="7">
-        <v>7.4499999999999997E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="I75" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="7">
+        <v>0.1462</v>
+      </c>
+      <c r="D76" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I76" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C77" s="7">
         <v>0.14530000000000001</v>
       </c>
-      <c r="D76" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" s="7">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="I76" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="7">
-        <v>0.14460000000000001</v>
-      </c>
       <c r="D77" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H77" s="7">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="I77" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="7">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="D78" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="7">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="I78" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="7">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="D79" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H79" s="7">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="I77" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="7">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="D78" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="I79" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="B80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="7">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D80" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H80" s="7">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="I78" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="7">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="D79" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="I80" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="D81" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" s="7">
-        <v>7.0400000000000004E-2</v>
-      </c>
-      <c r="I79" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="7">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="D80" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="7">
-        <v>7.0199999999999999E-2</v>
-      </c>
-      <c r="I80" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="7">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D81" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="G81" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H81" s="7">
-        <v>6.9900000000000004E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="I81" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C82" s="7">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D82" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="7">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="I82" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
         <v>0.13020000000000001</v>
       </c>
-      <c r="D82" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="D83" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83" s="7">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="I83" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0.1295</v>
+      </c>
+      <c r="D84" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G84" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H84" s="7">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="I82" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="6" t="s">
+      <c r="I84" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="7">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="D85" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="7">
-        <v>0.1295</v>
-      </c>
-      <c r="D83" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" s="7">
+      <c r="H85" s="7">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="I83" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="I85" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="7">
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="D86" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="7">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="I86" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="7">
+        <v>0.1242</v>
+      </c>
+      <c r="D87" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="7">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="I87" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C84" s="7">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="D84" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H84" s="7">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="I84" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="7">
-        <v>0.12540000000000001</v>
-      </c>
-      <c r="D85" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="7">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="I85" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="7">
-        <v>0.1242</v>
-      </c>
-      <c r="D86" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H86" s="7">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="I86" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="7">
-        <v>0.1232</v>
-      </c>
-      <c r="D87" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="7">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="I87" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C88" s="7">
         <v>0.1232</v>
       </c>
       <c r="D88" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H88" s="7">
-        <v>6.1199999999999997E-2</v>
+        <v>6.2600000000000003E-2</v>
       </c>
       <c r="I88" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="7">
+        <v>0.1232</v>
+      </c>
+      <c r="D89" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H89" s="7">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="I89" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C89" s="7">
-        <v>0.12139999999999999</v>
-      </c>
-      <c r="D89" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" s="7">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="I89" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C90" s="7">
         <v>0.12139999999999999</v>
       </c>
       <c r="D90" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H90" s="7">
-        <v>6.0900000000000003E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="I90" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C91" s="7">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="D91" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" s="7">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="I91" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="7">
         <v>0.11990000000000001</v>
       </c>
-      <c r="D91" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="D92" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="7">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="I92" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="7">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="D93" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H93" s="7">
         <v>6.08E-2</v>
       </c>
-      <c r="I91" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="7">
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="D92" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="I93" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="7">
+        <v>0.1171</v>
+      </c>
+      <c r="D94" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" s="7">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="I92" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="7">
-        <v>0.1171</v>
-      </c>
-      <c r="D93" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" s="7">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="I93" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="7">
-        <v>0.1168</v>
-      </c>
-      <c r="D94" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H94" s="7">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="I94" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="7">
+        <v>0.1168</v>
+      </c>
+      <c r="D95" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I95" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="7">
+        <v>0.1162</v>
+      </c>
+      <c r="D96" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="7">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="I94" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="6" t="s">
+      <c r="I96" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="7">
+        <v>0.1154</v>
+      </c>
+      <c r="D97" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="G97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" s="7">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="I97" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="7">
-        <v>0.1162</v>
-      </c>
-      <c r="D95" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="6" t="s">
+      <c r="C98" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="D98" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="7">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="I98" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="7">
+        <v>0.1149</v>
+      </c>
+      <c r="D99" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" s="7">
+        <v>5.62E-2</v>
+      </c>
+      <c r="I99" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H95" s="7">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="I95" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="6" t="s">
+      <c r="C100" s="7">
+        <v>0.1139</v>
+      </c>
+      <c r="D100" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" s="7">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="I100" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="7">
+        <v>0.1135</v>
+      </c>
+      <c r="D101" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H101" s="7">
+        <v>5.16E-2</v>
+      </c>
+      <c r="I101" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="7">
-        <v>0.1154</v>
-      </c>
-      <c r="D96" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H96" s="7">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="I96" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="7">
-        <v>0.115</v>
-      </c>
-      <c r="D97" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="C102" s="7">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="D102" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="7">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I102" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" s="7">
+        <v>0.1081</v>
+      </c>
+      <c r="D103" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H97" s="7">
-        <v>5.62E-2</v>
-      </c>
-      <c r="I97" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="7">
-        <v>0.1149</v>
-      </c>
-      <c r="D98" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="6" t="s">
+      <c r="H103" s="7">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="I103" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="7">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="I98" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C99" s="7">
-        <v>0.1139</v>
-      </c>
-      <c r="D99" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" s="7">
-        <v>5.16E-2</v>
-      </c>
-      <c r="I99" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C100" s="7">
-        <v>0.1135</v>
-      </c>
-      <c r="D100" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" s="7">
-        <v>5.04E-2</v>
-      </c>
-      <c r="I100" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" s="7">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="D101" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H101" s="7">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="I101" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="7">
-        <v>0.1081</v>
-      </c>
-      <c r="D102" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="7">
-        <v>4.82E-2</v>
-      </c>
-      <c r="I102" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="7">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="D103" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H103" s="7">
-        <v>4.82E-2</v>
-      </c>
-      <c r="I103" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="7">
-        <v>0.1062</v>
+        <v>0.10730000000000001</v>
       </c>
       <c r="D104" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H104" s="7">
-        <v>4.7E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="I104" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="7">
+        <v>0.1062</v>
+      </c>
+      <c r="D105" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="7">
+        <v>4.82E-2</v>
+      </c>
+      <c r="I105" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C106" s="7">
         <v>0.1045</v>
       </c>
-      <c r="D105" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F105" s="6" t="s">
+      <c r="D106" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I106" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="56" x14ac:dyDescent="0.15">
+      <c r="A107" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H105" s="7">
+      <c r="C108" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I105" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="7">
-        <v>0.104</v>
-      </c>
-      <c r="D106" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" s="6" t="s">
+      <c r="D108" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="B109" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H106" s="7">
+      <c r="C109" s="7">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="I106" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="7">
-        <v>0.1031</v>
-      </c>
-      <c r="D107" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F107" s="6" t="s">
+      <c r="D109" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H107" s="7">
-        <v>4.36E-2</v>
-      </c>
-      <c r="I107" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C108" s="7">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="D108" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" s="7">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="I108" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="48">
-      <c r="A109" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="7">
-        <v>-8.8999999999999999E-3</v>
+        <v>4.36E-2</v>
       </c>
       <c r="D110" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C111" s="7">
-        <v>-1.24E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="D111" s="7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9">
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C112" s="7">
-        <v>-1.26E-2</v>
+        <v>-8.8999999999999999E-3</v>
       </c>
       <c r="D112" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="7">
+        <v>-1.24E-2</v>
+      </c>
+      <c r="D113" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C114" s="7">
+        <v>-1.26E-2</v>
+      </c>
+      <c r="D114" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="7">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="D113" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="6" t="s">
+      <c r="D115" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B116" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C116" s="7">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D114" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="6" t="s">
+      <c r="D116" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C115" s="7">
-        <v>-1.3899999999999999E-2</v>
-      </c>
-      <c r="D115" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C116" s="7">
-        <v>-1.4200000000000001E-2</v>
-      </c>
-      <c r="D116" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C117" s="7">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+      <c r="D117" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="7">
+        <v>-1.4200000000000001E-2</v>
+      </c>
+      <c r="D118" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="7">
         <v>-1.9699999999999999E-2</v>
       </c>
-      <c r="D117" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="6" t="s">
+      <c r="D119" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C120" s="7">
         <v>-2.1600000000000001E-2</v>
       </c>
-      <c r="D118" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="6" t="s">
+      <c r="D120" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C121" s="7">
         <v>-2.29E-2</v>
       </c>
-      <c r="D119" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="6" t="s">
+      <c r="D121" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C120" s="7">
-        <v>-2.3E-2</v>
-      </c>
-      <c r="D120" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C121" s="7">
-        <v>-2.4199999999999999E-2</v>
-      </c>
-      <c r="D121" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C122" s="7">
-        <v>-2.4400000000000002E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="D122" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" s="7">
-        <v>-2.53E-2</v>
+        <v>-2.4199999999999999E-2</v>
       </c>
       <c r="D123" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="7">
+        <v>-2.4400000000000002E-2</v>
+      </c>
+      <c r="D124" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="7">
+        <v>-2.53E-2</v>
+      </c>
+      <c r="D125" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="7">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="D124" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="6" t="s">
+      <c r="D126" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C125" s="7">
+      <c r="C127" s="7">
         <v>-2.7199999999999998E-2</v>
       </c>
-      <c r="D125" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="6" t="s">
+      <c r="D127" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B128" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C126" s="7">
+      <c r="C128" s="7">
         <v>-2.7699999999999999E-2</v>
       </c>
-      <c r="D126" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="6" t="s">
+      <c r="D128" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C129" s="7">
         <v>-3.0300000000000001E-2</v>
       </c>
-      <c r="D127" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="6" t="s">
+      <c r="D129" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B130" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C130" s="7">
         <v>-3.1699999999999999E-2</v>
       </c>
-      <c r="D128" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="6" t="s">
+      <c r="D130" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C131" s="7">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="D129" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="6" t="s">
+      <c r="D131" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C132" s="7">
         <v>-3.2199999999999999E-2</v>
       </c>
-      <c r="D130" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="6" t="s">
+      <c r="D132" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B133" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C133" s="7">
         <v>-3.2199999999999999E-2</v>
       </c>
-      <c r="D131" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="6" t="s">
+      <c r="D133" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C134" s="7">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="D132" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="6" t="s">
+      <c r="D134" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" s="7">
-        <v>-3.6400000000000002E-2</v>
-      </c>
-      <c r="D133" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C134" s="7">
-        <v>-3.78E-2</v>
-      </c>
-      <c r="D134" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C135" s="7">
+        <v>-3.6400000000000002E-2</v>
+      </c>
+      <c r="D135" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="7">
+        <v>-3.78E-2</v>
+      </c>
+      <c r="D136" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="7">
         <v>-3.8199999999999998E-2</v>
       </c>
-      <c r="D135" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="6" t="s">
+      <c r="D137" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C136" s="7">
+      <c r="C138" s="7">
         <v>-3.9E-2</v>
       </c>
-      <c r="D136" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="6" t="s">
+      <c r="D138" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="7">
+      <c r="C139" s="7">
         <v>-4.2599999999999999E-2</v>
       </c>
-      <c r="D137" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="6" t="s">
+      <c r="D139" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C138" s="7">
-        <v>-4.41E-2</v>
-      </c>
-      <c r="D138" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C139" s="7">
-        <v>-4.7100000000000003E-2</v>
-      </c>
-      <c r="D139" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C140" s="7">
+        <v>-4.41E-2</v>
+      </c>
+      <c r="D140" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="7">
+        <v>-4.7100000000000003E-2</v>
+      </c>
+      <c r="D141" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" s="7">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="D140" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="6" t="s">
+      <c r="D142" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B143" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C141" s="7">
+      <c r="C143" s="7">
         <v>-4.8500000000000001E-2</v>
       </c>
-      <c r="D141" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="6" t="s">
+      <c r="D143" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C142" s="7">
-        <v>-5.21E-2</v>
-      </c>
-      <c r="D142" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C143" s="7">
-        <v>-5.9299999999999999E-2</v>
-      </c>
-      <c r="D143" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C144" s="7">
+        <v>-5.21E-2</v>
+      </c>
+      <c r="D144" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="7">
+        <v>-5.9299999999999999E-2</v>
+      </c>
+      <c r="D145" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C146" s="7">
         <v>-6.0100000000000001E-2</v>
       </c>
-      <c r="D144" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="6" t="s">
+      <c r="D146" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C147" s="7">
         <v>-6.5100000000000005E-2</v>
       </c>
-      <c r="D145" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="6" t="s">
+      <c r="D147" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B148" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C146" s="7">
+      <c r="C148" s="7">
         <v>-6.8500000000000005E-2</v>
       </c>
-      <c r="D146" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="6" t="s">
+      <c r="D148" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B149" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C149" s="7">
         <v>-6.9599999999999995E-2</v>
       </c>
-      <c r="D147" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="6" t="s">
+      <c r="D149" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B150" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="7">
+      <c r="C150" s="7">
         <v>-6.9599999999999995E-2</v>
       </c>
-      <c r="D148" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C149" s="7">
-        <v>-7.1099999999999997E-2</v>
-      </c>
-      <c r="D149" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C150" s="7">
-        <v>-7.4099999999999999E-2</v>
-      </c>
       <c r="D150" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="7">
+        <v>-7.1099999999999997E-2</v>
+      </c>
+      <c r="D151" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="7">
+        <v>-7.4099999999999999E-2</v>
+      </c>
+      <c r="D152" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="7">
+      <c r="C153" s="7">
         <v>-8.14E-2</v>
       </c>
-      <c r="D151" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="6" t="s">
+      <c r="D153" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C152" s="7">
+      <c r="C154" s="7">
         <v>-8.3900000000000002E-2</v>
       </c>
-      <c r="D152" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="6" t="s">
+      <c r="D154" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B155" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C153" s="7">
+      <c r="C155" s="7">
         <v>-8.9200000000000002E-2</v>
       </c>
-      <c r="D153" s="7" t="b">
+      <c r="D155" s="7" t="b">
         <v>1</v>
       </c>
     </row>
